--- a/biology/Botanique/Ficus_macrophylla/Ficus_macrophylla.xlsx
+++ b/biology/Botanique/Ficus_macrophylla/Ficus_macrophylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le figuier de la baie de Moreton (Ficus macrophylla) est un grand arbre à feuillage persistant de la famille des Moraceae d'origine australienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  Ficus macrophylla dans son habitat naturel se présente comme un arbre de grandes dimensions, qui peut atteindre 60 mètres de haut.
 C'est une plante typique des forêts pluviales qui, dans ces milieux, se développe souvent sous forme de plante grimpante. En effet, quand elle germe sur la branche d'un arbre, elle propage ses racines autour du tronc de son hôte, l'étouffe et finit par le tuer et par prendre sa place. À ce titre, il est parfois appelé figuier étrangleur.
@@ -546,10 +560,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est originaire des États australiens du Queensland et de Nouvelle-Galles du Sud. Le nom commun de figuier de la baie de Moreton (Moreton Bay Fig) lui vient de la baie australienne éponyme. Dans cette région de l'Australie orientale, la température moyenne oscille autour de 20–30 °C en janvier et de 10–20 °C en juillet.
-Cet arbre est cultivé et s'est naturalisé en Nouvelle-Zélande, à Hawaï, en Californie et en Floride. Toutefois, dans ces régions, les individus n'atteignent jamais les mêmes dimensions que dans leur habitat originel. On en trouve aussi plusieurs exemplaires à Valence (Espagne), où le plus grand possède un tronc de 13 m de circonférence et une couronne de 40 m avec une hauteur de 26 m[1].
+Cet arbre est cultivé et s'est naturalisé en Nouvelle-Zélande, à Hawaï, en Californie et en Floride. Toutefois, dans ces régions, les individus n'atteignent jamais les mêmes dimensions que dans leur habitat originel. On en trouve aussi plusieurs exemplaires à Valence (Espagne), où le plus grand possède un tronc de 13 m de circonférence et une couronne de 40 m avec une hauteur de 26 m.
 			Sur la piazza Marina de Palerme
 			Au Jardin botanique de Palerme
 			Sur la place de Tetuan à Valence
@@ -584,11 +600,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pollinisation
-Le fruit (sycone ou figue) et le système de reproduction ont des caractéristiques communes avec celles des autres espèces du genre Ficus.
+          <t>Pollinisation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit (sycone ou figue) et le système de reproduction ont des caractéristiques communes avec celles des autres espèces du genre Ficus.
 Chaque espèce de Ficus est inféodée à un hyménoptère pollinisateur spécifique et réciproquement chacun de ces hyménoptères pond ses œufs seulement dans les fruits d'une espèce particulière de ficus. L'hyménoptère spécifique du Ficus macrophylla est le Pleistodontes froggatti.
-Dissémination
-Parmi les oiseaux qui ont été signalés comme disséminateurs de cette espèce de Ficus figurent le moineau domestique (Passer domesticus), l'Acridotheres tristis tristis, la Geopelia striata, la  Streptopelia chinensis et le Zosterops japonicus. D'autres animaux comme les chauves-souris, les porcins, les rongeurs, les perroquets et les singes sont aussi des disséminateurs potentiels.
 </t>
         </is>
       </c>
@@ -614,14 +633,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sous-espèces</t>
+          <t>Propagation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>On connait deux sous-espèces :
-Ficus macrophylla subsp. macrophylla, autrefois classé comme Ficus platypoda var. etiolaris (Benth)
-Ficus macrophylla subsp. columnaris (C.Moore &amp; F.Muell.), autrefois classé comme Ficus magnolioides (Borzì)</t>
+          <t>Dissémination</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les oiseaux qui ont été signalés comme disséminateurs de cette espèce de Ficus figurent le moineau domestique (Passer domesticus), l'Acridotheres tristis tristis, la Geopelia striata, la  Streptopelia chinensis et le Zosterops japonicus. D'autres animaux comme les chauves-souris, les porcins, les rongeurs, les perroquets et les singes sont aussi des disséminateurs potentiels.
+</t>
         </is>
       </c>
     </row>
@@ -646,10 +670,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>On connait deux sous-espèces :
+Ficus macrophylla subsp. macrophylla, autrefois classé comme Ficus platypoda var. etiolaris (Benth)
+Ficus macrophylla subsp. columnaris (C.Moore &amp; F.Muell.), autrefois classé comme Ficus magnolioides (Borzì)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ficus_macrophylla</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ficus_macrophylla</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Curiosité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le jardin botanique de Palerme, au début du XXe siècle, Antonio Borzì étudia le latex du Ficus macrophylla subsp. columnaris qu'il considérait comme une source possible de caoutchouc. Mais bien que les exemplaires de cette espèce produisissent de grande quantité de latex, les analyses chimiques effectuées démontrèrent que la teneur en caoutchouc élastique était insuffisante.
 </t>
